--- a/results/manual_perceptron_wyniki_regression_train_val_test.xlsx
+++ b/results/manual_perceptron_wyniki_regression_train_val_test.xlsx
@@ -1107,13 +1107,13 @@
         <v>-0.4608402060629702</v>
       </c>
       <c r="M20" t="n">
-        <v>179.9643757843439</v>
+        <v>179.9643758076106</v>
       </c>
       <c r="N20" t="n">
-        <v>11.11131011724536</v>
+        <v>11.11131011822666</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.712841639766744</v>
+        <v>-1.712841640117473</v>
       </c>
     </row>
     <row r="21">
@@ -1258,15 +1258,33 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>710.1115597328075</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16.24316247147559</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-20.27722343753509</v>
+      </c>
+      <c r="J24" t="n">
+        <v>495.6849743267833</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19.3182039617343</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.4608402060629702</v>
+      </c>
+      <c r="M24" t="n">
+        <v>179.9643757843439</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11.11131011724536</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-1.712841639766744</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1752,17 +1770,35 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4364.267404390155</v>
+      </c>
+      <c r="H38" t="n">
+        <v>43.02054141402589</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-234.758619191818</v>
+      </c>
+      <c r="J38" t="n">
+        <v>501.3549254071415</v>
+      </c>
+      <c r="K38" t="n">
+        <v>19.43915434356472</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.4775501991706832</v>
+      </c>
+      <c r="M38" t="n">
+        <v>175.2246396478485</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10.9342109538948</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-1.641393312860089</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1783,33 +1819,15 @@
       <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
-        <v>1214.183370421852</v>
-      </c>
-      <c r="H39" t="n">
-        <v>21.98818586840691</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-45.45898396960971</v>
-      </c>
-      <c r="J39" t="n">
-        <v>442.5035645707614</v>
-      </c>
-      <c r="K39" t="n">
-        <v>18.07583211822078</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.3041085203946268</v>
-      </c>
-      <c r="M39" t="n">
-        <v>235.4989363243696</v>
-      </c>
-      <c r="N39" t="n">
-        <v>13.13879504666578</v>
-      </c>
-      <c r="O39" t="n">
-        <v>-2.549987700605275</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1830,33 +1848,15 @@
       <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="n">
-        <v>710.1115597328075</v>
-      </c>
-      <c r="H40" t="n">
-        <v>16.24316247147559</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-20.27722343753509</v>
-      </c>
-      <c r="J40" t="n">
-        <v>495.6849743267833</v>
-      </c>
-      <c r="K40" t="n">
-        <v>19.3182039617343</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-0.4608402060629702</v>
-      </c>
-      <c r="M40" t="n">
-        <v>179.9643757843439</v>
-      </c>
-      <c r="N40" t="n">
-        <v>11.11131011724536</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-1.712841639766744</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2136,34 +2136,34 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>4364.267411582018</v>
+        <v>4364.267411570388</v>
       </c>
       <c r="H50" t="n">
-        <v>43.02054145398402</v>
+        <v>43.0205414606223</v>
       </c>
       <c r="I50" t="n">
-        <v>-234.7585989800717</v>
+        <v>-234.7585998083199</v>
       </c>
       <c r="J50" t="n">
-        <v>501.354915922751</v>
+        <v>501.3549176289578</v>
       </c>
       <c r="K50" t="n">
-        <v>19.43915403344651</v>
+        <v>19.43915407846163</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.4775501712191017</v>
+        <v>-0.4775501762474879</v>
       </c>
       <c r="M50" t="n">
-        <v>175.2246234723735</v>
+        <v>175.224624025257</v>
       </c>
       <c r="N50" t="n">
-        <v>10.93421034680158</v>
+        <v>10.93421036755224</v>
       </c>
       <c r="O50" t="n">
-        <v>-1.641393069025709</v>
+        <v>-1.641393077360053</v>
       </c>
     </row>
     <row r="51">
@@ -2279,15 +2279,33 @@
       <c r="F53" t="n">
         <v>1</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>444.080858518792</v>
+      </c>
+      <c r="H53" t="n">
+        <v>12.17302455210275</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-8.780858952693793</v>
+      </c>
+      <c r="J53" t="n">
+        <v>537.1104287118278</v>
+      </c>
+      <c r="K53" t="n">
+        <v>20.1603408378827</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.5829257492091804</v>
+      </c>
+      <c r="M53" t="n">
+        <v>149.155077002627</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.931639662175</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.248412231097478</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2355,15 +2373,33 @@
       <c r="F55" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1214.183370421852</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21.98818586840691</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-45.45898396960971</v>
+      </c>
+      <c r="J55" t="n">
+        <v>442.5035645707614</v>
+      </c>
+      <c r="K55" t="n">
+        <v>18.07583211822078</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.3041085203946268</v>
+      </c>
+      <c r="M55" t="n">
+        <v>235.4989363243696</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.13879504666578</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-2.549987700605275</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2507,15 +2543,33 @@
       <c r="F59" t="n">
         <v>1</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>1214.183370421852</v>
+      </c>
+      <c r="H59" t="n">
+        <v>21.98818586840691</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-45.45898396960971</v>
+      </c>
+      <c r="J59" t="n">
+        <v>442.5035645707614</v>
+      </c>
+      <c r="K59" t="n">
+        <v>18.07583211822078</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.3041085203946268</v>
+      </c>
+      <c r="M59" t="n">
+        <v>235.4989363243696</v>
+      </c>
+      <c r="N59" t="n">
+        <v>13.13879504666578</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-2.549987700605275</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2730,7 +2784,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 12:20:02</t>
+          <t>2025-11-15 21:58:28</t>
         </is>
       </c>
     </row>
